--- a/app/データ移行.xlsx
+++ b/app/データ移行.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\y-kawauchi\python_tool_development\sqlite_test\app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA10666-32B3-4900-9DFC-FD0B57BB86F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820217CC-AB4F-47D7-8B26-2DE9465429A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="915" xr2:uid="{DE7902A3-678C-4785-B67D-0092487D7F08}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="16020" tabRatio="915" xr2:uid="{DE7902A3-678C-4785-B67D-0092487D7F08}"/>
   </bookViews>
   <sheets>
     <sheet name="TargetMaster" sheetId="2" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="77">
   <si>
     <t>step</t>
   </si>
@@ -125,6 +125,175 @@
   </si>
   <si>
     <t>lost_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>page_name</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>変更情報</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>コメント欄</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>進捗履歴</t>
+  </si>
+  <si>
+    <t>action_class</t>
+  </si>
+  <si>
+    <t>approval</t>
+  </si>
+  <si>
+    <t>承認</t>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <t>completed</t>
+  </si>
+  <si>
+    <t>入力完了</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>copy</t>
+  </si>
+  <si>
+    <t>複製</t>
+  </si>
+  <si>
+    <t>print</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
+    <t>一時保存</t>
+  </si>
+  <si>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>rejected</t>
+  </si>
+  <si>
+    <t>remand</t>
+  </si>
+  <si>
+    <t>差戻</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>中止</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>charge_department</t>
+  </si>
+  <si>
+    <t>display_order</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>KOUMU</t>
+  </si>
+  <si>
+    <t>KA&amp;A</t>
+  </si>
+  <si>
+    <t>OPQC</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>action</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>action_name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>action_class</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>action_authority</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>progress_transition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>lost_flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page_no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>default_page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>page</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>present_step</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>next_step</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -617,12 +786,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A57E521-E45A-49C0-A0B3-5396EC3E0808}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -630,12 +849,281 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C3E7746-6C56-47B8-95F5-F9817D2D156A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -645,9 +1133,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC6F67A5-916C-478B-A778-65035CBB3BC4}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -898,12 +1384,316 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80870EB-8AD9-491E-A785-F3F7EF66903F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1301</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1401</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1402</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1501</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1501</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1501</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1502</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1601</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>8101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>8201</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>9999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -911,12 +1701,704 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9DD0F96-9F84-4D0B-9C58-29832BA70B24}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1102</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1102</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1102</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1103</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1103</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1103</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1104</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1104</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1104</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1201</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1201</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1201</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1202</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1202</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1202</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1301</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1301</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>1301</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>1302</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>1302</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>1302</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>1401</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>1401</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B25">
+        <v>1401</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B26">
+        <v>1501</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27">
+        <v>1501</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B28">
+        <v>1501</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B29">
+        <v>1601</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B30">
+        <v>1601</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B31">
+        <v>1601</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>8101</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>8101</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>8101</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>8201</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>8201</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B37">
+        <v>8201</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B38">
+        <v>9999</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B39">
+        <v>9999</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B40">
+        <v>9999</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>29</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -924,12 +2406,334 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1FDA16B-D3F9-4DE1-A08E-EAECE11B5B07}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1201</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1202</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1301</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1302</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1303</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1303</v>
+      </c>
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1401</v>
+      </c>
+      <c r="C13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1402</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1501</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1501</v>
+      </c>
+      <c r="C16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1502</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1502</v>
+      </c>
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>1601</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>8101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>8201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>9999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -937,12 +2741,321 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93A826E3-CB25-44CF-B757-507AD8502209}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1102</v>
+      </c>
+      <c r="C2">
+        <v>1103</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1102</v>
+      </c>
+      <c r="C3">
+        <v>8201</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1103</v>
+      </c>
+      <c r="C4">
+        <v>1104</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1103</v>
+      </c>
+      <c r="C5">
+        <v>1102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1104</v>
+      </c>
+      <c r="C6">
+        <v>1201</v>
+      </c>
+      <c r="D6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1104</v>
+      </c>
+      <c r="C7">
+        <v>1103</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1201</v>
+      </c>
+      <c r="C8">
+        <v>1202</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1201</v>
+      </c>
+      <c r="C9">
+        <v>8201</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1202</v>
+      </c>
+      <c r="C10">
+        <v>1401</v>
+      </c>
+      <c r="D10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1301</v>
+      </c>
+      <c r="C11">
+        <v>1302</v>
+      </c>
+      <c r="D11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1301</v>
+      </c>
+      <c r="C12">
+        <v>8201</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1302</v>
+      </c>
+      <c r="C13">
+        <v>1303</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1302</v>
+      </c>
+      <c r="C14">
+        <v>1301</v>
+      </c>
+      <c r="D14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1401</v>
+      </c>
+      <c r="C15">
+        <v>1402</v>
+      </c>
+      <c r="D15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1401</v>
+      </c>
+      <c r="C16">
+        <v>8201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1402</v>
+      </c>
+      <c r="C17">
+        <v>1601</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1501</v>
+      </c>
+      <c r="C18">
+        <v>1502</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>1601</v>
+      </c>
+      <c r="C19">
+        <v>9999</v>
+      </c>
+      <c r="D19" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>8201</v>
+      </c>
+      <c r="C20">
+        <v>8201</v>
+      </c>
+      <c r="D20" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>9999</v>
+      </c>
+      <c r="C21">
+        <v>9999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -950,12 +3063,364 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB836D6-5EFB-45B9-A7A7-4F45995CB736}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>1102</v>
+      </c>
+      <c r="C2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>1102</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>1102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>1103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>1103</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>1104</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>1104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>1201</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>1201</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>1201</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>1301</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>1301</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>1302</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>1302</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>1401</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>1401</v>
+      </c>
+      <c r="C17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1401</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>1501</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>1601</v>
+      </c>
+      <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
